--- a/tests/models/integrated/4_full_scale_model/sets.xlsx
+++ b/tests/models/integrated/4_full_scale_model/sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzorinaldi/Documents/GitHub/pyesm/tests/models/integrated/4_full_scale_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5B1EF7-3F30-6440-A7C4-E32E51F85F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BED42C-A52C-AE40-883C-059DDFB6A3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="6700" windowWidth="30240" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="-21040" windowWidth="30240" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_SECTORS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
   <si>
     <t>sectors_Name</t>
   </si>
@@ -227,6 +227,39 @@
   </si>
   <si>
     <t>stor+</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>emissions by tech</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>emissions by prod</t>
+  </si>
+  <si>
+    <t>historical</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>y2020</t>
+  </si>
+  <si>
+    <t>y2030</t>
   </si>
 </sst>
 </file>
@@ -293,13 +326,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,7 +637,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -760,7 +792,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="171" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -884,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="167" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -919,7 +951,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
@@ -934,12 +966,10 @@
       <c r="E2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
@@ -954,12 +984,10 @@
       <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
@@ -974,12 +1002,10 @@
       <c r="E4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B5" t="s">
@@ -994,12 +1020,10 @@
       <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B6" t="s">
@@ -1014,12 +1038,10 @@
       <c r="E6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B7" t="s">
@@ -1034,12 +1056,10 @@
       <c r="E7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B8" t="s">
@@ -1054,12 +1074,10 @@
       <c r="E8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B9" t="s">
@@ -1074,12 +1092,10 @@
       <c r="E9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B10" t="s">
@@ -1094,12 +1110,10 @@
       <c r="E10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
@@ -1114,12 +1128,10 @@
       <c r="E11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B12" t="s">
@@ -1134,12 +1146,10 @@
       <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
@@ -1154,12 +1164,10 @@
       <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B14" t="s">
@@ -1174,12 +1182,10 @@
       <c r="E14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B15" t="s">
@@ -1194,12 +1200,10 @@
       <c r="E15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
@@ -1214,12 +1218,10 @@
       <c r="E16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B17" t="s">
@@ -1230,7 +1232,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B18" t="s">
@@ -1241,7 +1243,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B19" t="s">
@@ -1252,7 +1254,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1261,11 +1263,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1273,6 +1281,21 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1282,11 +1305,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1297,6 +1327,22 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1306,11 +1352,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1323,6 +1376,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/models/integrated/4_full_scale_model/sets.xlsx
+++ b/tests/models/integrated/4_full_scale_model/sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzorinaldi/Documents/GitHub/pyesm/tests/models/integrated/4_full_scale_model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baioc\Documents\GitHub\pyesm\tests\models\integrated\4_full_scale_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BED42C-A52C-AE40-883C-059DDFB6A3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605C6039-7A61-4F3A-9915-459DF4B1F06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="-21040" windowWidth="30240" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3795" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_SECTORS" sheetId="1" r:id="rId1"/>
@@ -636,20 +636,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -674,10 +674,10 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -688,7 +688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -702,7 +702,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -713,7 +713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -724,7 +724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -735,7 +735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -746,7 +746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -760,7 +760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -771,7 +771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -795,7 +795,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -804,7 +804,7 @@
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -832,7 +832,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -843,7 +843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -854,7 +854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -868,7 +868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -896,7 +896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -920,17 +920,17 @@
       <selection activeCell="C17" sqref="C17:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -950,7 +950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -968,7 +968,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -986,7 +986,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
   </sheetData>
@@ -1269,13 +1269,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1283,17 +1283,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1307,18 +1307,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="116" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -1358,14 +1358,14 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
